--- a/EXPORT_FILES/ВУНЦ=П4_СВУ-24.xlsx
+++ b/EXPORT_FILES/ВУНЦ=П4_СВУ-24.xlsx
@@ -8627,7 +8627,7 @@
         <f>SUM(D5:I5,K5:AI5)</f>
       </c>
       <c r="D5" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="38">
         <v>0</v>
@@ -8870,7 +8870,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="6">
         <v>0</v>
@@ -9107,7 +9107,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
@@ -9344,7 +9344,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6">
@@ -9582,7 +9582,7 @@
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="6">
         <v>0</v>
@@ -9819,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="6">
         <v>0</v>
@@ -10056,7 +10056,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="6">
         <v>0</v>
@@ -10293,7 +10293,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="6">
         <v>0</v>
@@ -10502,7 +10502,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
@@ -10812,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="AE14" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF14" s="6">
         <v>0</v>
@@ -11040,7 +11040,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="6">
         <v>0</v>
@@ -11277,7 +11277,7 @@
         <v>0</v>
       </c>
       <c r="AD16" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="6">
         <v>0</v>
@@ -11517,7 +11517,7 @@
         <v>0</v>
       </c>
       <c r="AF17" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17" s="6">
         <v>0</v>
@@ -11763,7 +11763,7 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK18" s="32"/>
       <c r="AL18" s="33">
@@ -11886,7 +11886,7 @@
         <v>0</v>
       </c>
       <c r="CA18" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB18" s="6">
         <v>0</v>
@@ -11994,7 +11994,7 @@
         <v>0</v>
       </c>
       <c r="AI19" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="31">
         <v>0</v>
@@ -12222,7 +12222,7 @@
         <v>0</v>
       </c>
       <c r="AG20" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH20" s="6">
         <v>0</v>
@@ -12402,7 +12402,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" s="6">
         <v>0</v>
@@ -12873,7 +12873,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="6">
         <v>0</v>
@@ -13110,7 +13110,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="6">
         <v>0</v>
@@ -13347,7 +13347,7 @@
         <v>0</v>
       </c>
       <c r="R25" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" s="6">
         <v>0</v>
@@ -13584,7 +13584,7 @@
         <v>0</v>
       </c>
       <c r="S26" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" s="6">
         <v>0</v>
@@ -13821,7 +13821,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27" s="6">
         <v>0</v>
@@ -14058,7 +14058,7 @@
         <v>0</v>
       </c>
       <c r="U28" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" s="6">
         <v>0</v>
@@ -14295,7 +14295,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" s="6">
         <v>0</v>
@@ -14532,7 +14532,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30" s="6">
         <v>0</v>
@@ -14769,7 +14769,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="6">
         <v>0</v>
@@ -14951,7 +14951,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="6">
         <v>0</v>
@@ -15240,7 +15240,7 @@
         <v>0</v>
       </c>
       <c r="Y33" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="6">
         <v>0</v>
@@ -15477,7 +15477,7 @@
         <v>0</v>
       </c>
       <c r="Z34" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA34" s="6">
         <v>0</v>
@@ -15717,7 +15717,7 @@
         <v>0</v>
       </c>
       <c r="AB35" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC35" s="6">
         <v>0</v>
